--- a/2 PCB/Export/Attempt 2/BOM.xlsx
+++ b/2 PCB/Export/Attempt 2/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\RGB Controller\Teensy-PC_RGB_Controller\2 PCB\Export\Attempt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFEBBCA-9B53-4101-B999-210CAC45FB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC419EB-A655-45F6-8400-5B0A4CF49BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="12165" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1395" windowWidth="12165" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Comment</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>TXS0108EPWR</t>
+  </si>
+  <si>
+    <t>0603WAF1002T5E</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A3:XFD4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -505,9 +508,12 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>